--- a/biology/Biologie cellulaire et moléculaire/Acétyl-coenzyme_A_acétyltransférase/Acétyl-coenzyme_A_acétyltransférase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Acétyl-coenzyme_A_acétyltransférase/Acétyl-coenzyme_A_acétyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tyl-coenzyme_A_ac%C3%A9tyltransf%C3%A9rase</t>
+          <t>Acétyl-coenzyme_A_acétyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acétyl-CoA acétyltransferase est une enzyme de type acyltransférase, aussi appelé thiolase, qui intervient dans la quatrième et dernière étape de la bêta-oxydation des acides gras. Elle permet, à la suite de la création d'une liaison carbone-carbone moins stable (entre le carbone α et β), de cliver la β-cétoacyl-Coa pour permettre de libérer un acétyl-Coenzyme A, ainsi qu'un acide gras avec deux carbones de moins (les 2 carbones étant ceux libérés, qui se retrouvent dans l'acétyl-CoA). Elle nécessite du coenzyme A afin de le fixer sur l'acide gras restant et ainsi engranger un nouveau cycle de la β-oxydation.
